--- a/src/desing/esquema socket.xlsx
+++ b/src/desing/esquema socket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsosa\Desktop\PROYEC\SOCKET-REACT\src\desing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB45A08-9A88-478E-AAAC-46F25B2A54BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7794C-209C-4DCC-B71D-88071DE3F5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18870" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{3BBFA9AF-4416-46CA-BCFE-42120CF3C916}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3BBFA9AF-4416-46CA-BCFE-42120CF3C916}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>INICIO DE SESION</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>urlFondoCD</t>
+  </si>
+  <si>
+    <t>amigos</t>
+  </si>
+  <si>
+    <t>usiariosXamigo</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
   </si>
 </sst>
 </file>
@@ -195,6 +204,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,7 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2531,7 +2540,7 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="4.140625" customWidth="1"/>
     <col min="18" max="18" width="45.5703125" customWidth="1"/>
@@ -2539,19 +2548,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2589,20 +2598,20 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="J13" s="12" t="s">
+      <c r="H13" s="13"/>
+      <c r="J13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="13"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="J14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2611,98 +2620,98 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
     </row>
@@ -2795,28 +2804,28 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2835,7 +2844,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2843,46 +2852,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA1138-DE75-4E35-A6FA-84393F9EA608}">
-  <dimension ref="L3:U15"/>
+  <dimension ref="H3:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="R3" s="13" t="s">
+    <row r="3" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
       <c r="R4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
       <c r="R6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L8" s="13" t="s">
+    <row r="8" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:21" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>12</v>
       </c>
@@ -2896,7 +2921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:21" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>13</v>
       </c>
@@ -2907,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:21" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>14</v>
       </c>
@@ -2915,22 +2940,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
       <c r="P12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
       <c r="P15" t="s">
         <v>23</v>
       </c>

--- a/src/desing/esquema socket.xlsx
+++ b/src/desing/esquema socket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsosa\Desktop\PROYEC\SOCKET-REACT\src\desing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7794C-209C-4DCC-B71D-88071DE3F5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B3538-2F87-451C-85D6-1494B21EF424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3BBFA9AF-4416-46CA-BCFE-42120CF3C916}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>INICIO DE SESION</t>
   </si>
@@ -114,10 +114,10 @@
     <t>amigos</t>
   </si>
   <si>
-    <t>usiariosXamigo</t>
+    <t>idUsuario</t>
   </si>
   <si>
-    <t>idUsuario</t>
+    <t>idUsuarioAmigo</t>
   </si>
 </sst>
 </file>
@@ -2852,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA1138-DE75-4E35-A6FA-84393F9EA608}">
-  <dimension ref="H3:U15"/>
+  <dimension ref="J3:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,41 +2864,34 @@
     <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="10:21" x14ac:dyDescent="0.25">
       <c r="R3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="10:21" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="10:21" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
+    <row r="6" spans="10:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="L8" s="9" t="s">
+    <row r="7" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>16</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>15</v>
@@ -2907,7 +2900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:21" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>12</v>
       </c>
@@ -2921,52 +2914,59 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:21" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>13</v>
       </c>
       <c r="P10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:21" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="8:21" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="10:21" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="8:21" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="10:21" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P15" t="s">
-        <v>23</v>
+    </row>
+    <row r="16" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/desing/esquema socket.xlsx
+++ b/src/desing/esquema socket.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsosa\Desktop\PROYEC\SOCKET-REACT\src\desing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B3538-2F87-451C-85D6-1494B21EF424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4043B2-A1E7-40BA-BA91-FEC684795E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3BBFA9AF-4416-46CA-BCFE-42120CF3C916}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3BBFA9AF-4416-46CA-BCFE-42120CF3C916}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="home" sheetId="2" r:id="rId2"/>
-    <sheet name="sing up" sheetId="3" r:id="rId3"/>
-    <sheet name="base de datos" sheetId="4" r:id="rId4"/>
+    <sheet name="App" sheetId="5" r:id="rId3"/>
+    <sheet name="sing up" sheetId="3" r:id="rId4"/>
+    <sheet name="base de datos" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>INICIO DE SESION</t>
   </si>
@@ -118,6 +119,15 @@
   </si>
   <si>
     <t>idUsuarioAmigo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>id nombre</t>
+  </si>
+  <si>
+    <t>idEstado</t>
   </si>
 </sst>
 </file>
@@ -2229,6 +2239,131 @@
             <a:rPr lang="es-419" sz="1600"/>
             <a:t>Sing up</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837D1FBB-B116-45A7-954C-36C4A2B4ECC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="838200"/>
+          <a:ext cx="9648825" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFA60E2-A315-4E51-89C9-CF7C753C6413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1333500"/>
+          <a:ext cx="6362700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2837,6 +2972,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF09CA2-64CB-4639-945D-EB950DD4927A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EC2556-BC9F-4B27-B8D6-20A0AFE6818E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2850,12 +3000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA1138-DE75-4E35-A6FA-84393F9EA608}">
-  <dimension ref="J3:U18"/>
+  <dimension ref="J3:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,14 +3109,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
